--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3091.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3091.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.312329450044151</v>
+        <v>1.263378620147705</v>
       </c>
       <c r="B1">
-        <v>2.673465106252265</v>
+        <v>2.403374433517456</v>
       </c>
       <c r="C1">
-        <v>3.433713750843031</v>
+        <v>4.323180675506592</v>
       </c>
       <c r="D1">
-        <v>4.053426064648481</v>
+        <v>2.636476516723633</v>
       </c>
       <c r="E1">
-        <v>1.540552533980375</v>
+        <v>1.347945213317871</v>
       </c>
     </row>
   </sheetData>
